--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Dkk2-Lrp5.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Dkk2-Lrp5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,28 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Dkk2</t>
   </si>
   <si>
     <t>Lrp5</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>M1</t>
   </si>
   <si>
-    <t>M2</t>
-  </si>
-  <si>
     <t>Neutro</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>6.19768550803245</v>
+        <v>0.002991666666666667</v>
       </c>
       <c r="H2">
-        <v>6.19768550803245</v>
+        <v>0.008975</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.0004153486577782517</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.0004153486577782517</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.416405471499</v>
+        <v>13.521022</v>
       </c>
       <c r="N2">
-        <v>12.416405471499</v>
+        <v>40.563066</v>
       </c>
       <c r="O2">
-        <v>0.3266648556590636</v>
+        <v>0.3282908109760463</v>
       </c>
       <c r="P2">
-        <v>0.3266648556590636</v>
+        <v>0.3282908109760462</v>
       </c>
       <c r="Q2">
-        <v>76.95297625256417</v>
+        <v>0.04045039081666667</v>
       </c>
       <c r="R2">
-        <v>76.95297625256417</v>
+        <v>0.36405351735</v>
       </c>
       <c r="S2">
-        <v>0.3266648556590636</v>
+        <v>0.0001363551476998346</v>
       </c>
       <c r="T2">
-        <v>0.3266648556590636</v>
+        <v>0.0001363551476998345</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>6.19768550803245</v>
+        <v>0.002991666666666667</v>
       </c>
       <c r="H3">
-        <v>6.19768550803245</v>
+        <v>0.008975</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.0004153486577782517</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.0004153486577782517</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.91150800457752</v>
+        <v>4.977299666666667</v>
       </c>
       <c r="N3">
-        <v>4.91150800457752</v>
+        <v>14.931899</v>
       </c>
       <c r="O3">
-        <v>0.1292175144462283</v>
+        <v>0.1208489819808595</v>
       </c>
       <c r="P3">
-        <v>0.1292175144462283</v>
+        <v>0.1208489819808595</v>
       </c>
       <c r="Q3">
-        <v>30.43998198255547</v>
+        <v>0.01489042150277778</v>
       </c>
       <c r="R3">
-        <v>30.43998198255547</v>
+        <v>0.134013793525</v>
       </c>
       <c r="S3">
-        <v>0.1292175144462283</v>
+        <v>5.019446245961812E-05</v>
       </c>
       <c r="T3">
-        <v>0.1292175144462283</v>
+        <v>5.019446245961811E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>6.19768550803245</v>
+        <v>0.002991666666666667</v>
       </c>
       <c r="H4">
-        <v>6.19768550803245</v>
+        <v>0.008975</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.0004153486577782517</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.0004153486577782517</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.06143507078979</v>
+        <v>5.309148666666666</v>
       </c>
       <c r="N4">
-        <v>5.06143507078979</v>
+        <v>15.927446</v>
       </c>
       <c r="O4">
-        <v>0.1331619654836916</v>
+        <v>0.1289062854399907</v>
       </c>
       <c r="P4">
-        <v>0.1331619654836916</v>
+        <v>0.1289062854399907</v>
       </c>
       <c r="Q4">
-        <v>31.36918278808108</v>
+        <v>0.01588320309444444</v>
       </c>
       <c r="R4">
-        <v>31.36918278808108</v>
+        <v>0.14294882785</v>
       </c>
       <c r="S4">
-        <v>0.1331619654836916</v>
+        <v>5.354105263668035E-05</v>
       </c>
       <c r="T4">
-        <v>0.1331619654836916</v>
+        <v>5.354105263668035E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>6.19768550803245</v>
+        <v>0.002991666666666667</v>
       </c>
       <c r="H5">
-        <v>6.19768550803245</v>
+        <v>0.008975</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.0004153486577782517</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.0004153486577782517</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.4722483688673</v>
+        <v>7.585411999999999</v>
       </c>
       <c r="N5">
-        <v>7.4722483688673</v>
+        <v>22.756236</v>
       </c>
       <c r="O5">
-        <v>0.1965883717689209</v>
+        <v>0.1841740259772843</v>
       </c>
       <c r="P5">
-        <v>0.1965883717689209</v>
+        <v>0.1841740259772843</v>
       </c>
       <c r="Q5">
-        <v>46.31064542814798</v>
+        <v>0.02269302423333333</v>
       </c>
       <c r="R5">
-        <v>46.31064542814798</v>
+        <v>0.2042372181</v>
       </c>
       <c r="S5">
-        <v>0.1965883717689209</v>
+        <v>7.649643448728191E-05</v>
       </c>
       <c r="T5">
-        <v>0.1965883717689209</v>
+        <v>7.649643448728191E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>6.19768550803245</v>
+        <v>0.002991666666666667</v>
       </c>
       <c r="H6">
-        <v>6.19768550803245</v>
+        <v>0.008975</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.0004153486577782517</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.0004153486577782517</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.00084241956244</v>
+        <v>2.036727666666667</v>
       </c>
       <c r="N6">
-        <v>2.00084241956244</v>
+        <v>6.110183</v>
       </c>
       <c r="O6">
-        <v>0.05264042815637752</v>
+        <v>0.04945180752071482</v>
       </c>
       <c r="P6">
-        <v>0.05264042815637752</v>
+        <v>0.04945180752071481</v>
       </c>
       <c r="Q6">
-        <v>12.40059206757872</v>
+        <v>0.006093210269444445</v>
       </c>
       <c r="R6">
-        <v>12.40059206757872</v>
+        <v>0.054838892425</v>
       </c>
       <c r="S6">
-        <v>0.05264042815637752</v>
+        <v>2.053974187843735E-05</v>
       </c>
       <c r="T6">
-        <v>0.05264042815637752</v>
+        <v>2.053974187843735E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,1177 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.002991666666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.008975</v>
+      </c>
+      <c r="I7">
+        <v>0.0004153486577782517</v>
+      </c>
+      <c r="J7">
+        <v>0.0004153486577782517</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>7.756501666666668</v>
+      </c>
+      <c r="N7">
+        <v>23.269505</v>
+      </c>
+      <c r="O7">
+        <v>0.1883280881051044</v>
+      </c>
+      <c r="P7">
+        <v>0.1883280881051044</v>
+      </c>
+      <c r="Q7">
+        <v>0.02320486748611111</v>
+      </c>
+      <c r="R7">
+        <v>0.208843807375</v>
+      </c>
+      <c r="S7">
+        <v>7.822181861639943E-05</v>
+      </c>
+      <c r="T7">
+        <v>7.822181861639943E-05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>7.119666333333334</v>
+      </c>
+      <c r="H8">
+        <v>21.358999</v>
+      </c>
+      <c r="I8">
+        <v>0.9884603416308657</v>
+      </c>
+      <c r="J8">
+        <v>0.9884603416308657</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>13.521022</v>
+      </c>
+      <c r="N8">
+        <v>40.563066</v>
+      </c>
+      <c r="O8">
+        <v>0.3282908109760463</v>
+      </c>
+      <c r="P8">
+        <v>0.3282908109760462</v>
+      </c>
+      <c r="Q8">
+        <v>96.26516512565934</v>
+      </c>
+      <c r="R8">
+        <v>866.386486130934</v>
+      </c>
+      <c r="S8">
+        <v>0.3245024471716567</v>
+      </c>
+      <c r="T8">
+        <v>0.3245024471716566</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>7.119666333333334</v>
+      </c>
+      <c r="H9">
+        <v>21.358999</v>
+      </c>
+      <c r="I9">
+        <v>0.9884603416308657</v>
+      </c>
+      <c r="J9">
+        <v>0.9884603416308657</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.977299666666667</v>
+      </c>
+      <c r="N9">
+        <v>14.931899</v>
+      </c>
+      <c r="O9">
+        <v>0.1208489819808595</v>
+      </c>
+      <c r="P9">
+        <v>0.1208489819808595</v>
+      </c>
+      <c r="Q9">
+        <v>35.4367128676779</v>
+      </c>
+      <c r="R9">
+        <v>318.930415809101</v>
+      </c>
+      <c r="S9">
+        <v>0.1194544260145427</v>
+      </c>
+      <c r="T9">
+        <v>0.1194544260145427</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>7.119666333333334</v>
+      </c>
+      <c r="H10">
+        <v>21.358999</v>
+      </c>
+      <c r="I10">
+        <v>0.9884603416308657</v>
+      </c>
+      <c r="J10">
+        <v>0.9884603416308657</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>5.309148666666666</v>
+      </c>
+      <c r="N10">
+        <v>15.927446</v>
+      </c>
+      <c r="O10">
+        <v>0.1289062854399907</v>
+      </c>
+      <c r="P10">
+        <v>0.1289062854399907</v>
+      </c>
+      <c r="Q10">
+        <v>37.79936702072822</v>
+      </c>
+      <c r="R10">
+        <v>340.194303186554</v>
+      </c>
+      <c r="S10">
+        <v>0.1274187509443792</v>
+      </c>
+      <c r="T10">
+        <v>0.1274187509443792</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>7.119666333333334</v>
+      </c>
+      <c r="H11">
+        <v>21.358999</v>
+      </c>
+      <c r="I11">
+        <v>0.9884603416308657</v>
+      </c>
+      <c r="J11">
+        <v>0.9884603416308657</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>7.585411999999999</v>
+      </c>
+      <c r="N11">
+        <v>22.756236</v>
+      </c>
+      <c r="O11">
+        <v>0.1841740259772843</v>
+      </c>
+      <c r="P11">
+        <v>0.1841740259772843</v>
+      </c>
+      <c r="Q11">
+        <v>54.00560244086266</v>
+      </c>
+      <c r="R11">
+        <v>486.050421967764</v>
+      </c>
+      <c r="S11">
+        <v>0.1820487206370384</v>
+      </c>
+      <c r="T11">
+        <v>0.1820487206370384</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>27</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>6.19768550803245</v>
-      </c>
-      <c r="H7">
-        <v>6.19768550803245</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>6.14717589082997</v>
-      </c>
-      <c r="N7">
-        <v>6.14717589082997</v>
-      </c>
-      <c r="O7">
-        <v>0.1617268644857181</v>
-      </c>
-      <c r="P7">
-        <v>0.1617268644857181</v>
-      </c>
-      <c r="Q7">
-        <v>38.09826293392337</v>
-      </c>
-      <c r="R7">
-        <v>38.09826293392337</v>
-      </c>
-      <c r="S7">
-        <v>0.1617268644857181</v>
-      </c>
-      <c r="T7">
-        <v>0.1617268644857181</v>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>7.119666333333334</v>
+      </c>
+      <c r="H12">
+        <v>21.358999</v>
+      </c>
+      <c r="I12">
+        <v>0.9884603416308657</v>
+      </c>
+      <c r="J12">
+        <v>0.9884603416308657</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.036727666666667</v>
+      </c>
+      <c r="N12">
+        <v>6.110183</v>
+      </c>
+      <c r="O12">
+        <v>0.04945180752071482</v>
+      </c>
+      <c r="P12">
+        <v>0.04945180752071481</v>
+      </c>
+      <c r="Q12">
+        <v>14.50082139853522</v>
+      </c>
+      <c r="R12">
+        <v>130.507392586817</v>
+      </c>
+      <c r="S12">
+        <v>0.04888115055618959</v>
+      </c>
+      <c r="T12">
+        <v>0.04888115055618958</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>7.119666333333334</v>
+      </c>
+      <c r="H13">
+        <v>21.358999</v>
+      </c>
+      <c r="I13">
+        <v>0.9884603416308657</v>
+      </c>
+      <c r="J13">
+        <v>0.9884603416308657</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>7.756501666666668</v>
+      </c>
+      <c r="N13">
+        <v>23.269505</v>
+      </c>
+      <c r="O13">
+        <v>0.1883280881051044</v>
+      </c>
+      <c r="P13">
+        <v>0.1883280881051044</v>
+      </c>
+      <c r="Q13">
+        <v>55.22370378061057</v>
+      </c>
+      <c r="R13">
+        <v>497.0133340254951</v>
+      </c>
+      <c r="S13">
+        <v>0.1861548463070593</v>
+      </c>
+      <c r="T13">
+        <v>0.1861548463070593</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.027522</v>
+      </c>
+      <c r="H14">
+        <v>0.082566</v>
+      </c>
+      <c r="I14">
+        <v>0.003821022537951992</v>
+      </c>
+      <c r="J14">
+        <v>0.003821022537951992</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>13.521022</v>
+      </c>
+      <c r="N14">
+        <v>40.563066</v>
+      </c>
+      <c r="O14">
+        <v>0.3282908109760463</v>
+      </c>
+      <c r="P14">
+        <v>0.3282908109760462</v>
+      </c>
+      <c r="Q14">
+        <v>0.3721255674840001</v>
+      </c>
+      <c r="R14">
+        <v>3.349130107356</v>
+      </c>
+      <c r="S14">
+        <v>0.00125440658774201</v>
+      </c>
+      <c r="T14">
+        <v>0.00125440658774201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.027522</v>
+      </c>
+      <c r="H15">
+        <v>0.082566</v>
+      </c>
+      <c r="I15">
+        <v>0.003821022537951992</v>
+      </c>
+      <c r="J15">
+        <v>0.003821022537951992</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>4.977299666666667</v>
+      </c>
+      <c r="N15">
+        <v>14.931899</v>
+      </c>
+      <c r="O15">
+        <v>0.1208489819808595</v>
+      </c>
+      <c r="P15">
+        <v>0.1208489819808595</v>
+      </c>
+      <c r="Q15">
+        <v>0.136985241426</v>
+      </c>
+      <c r="R15">
+        <v>1.232867172834</v>
+      </c>
+      <c r="S15">
+        <v>0.0004617666838374183</v>
+      </c>
+      <c r="T15">
+        <v>0.0004617666838374183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.027522</v>
+      </c>
+      <c r="H16">
+        <v>0.082566</v>
+      </c>
+      <c r="I16">
+        <v>0.003821022537951992</v>
+      </c>
+      <c r="J16">
+        <v>0.003821022537951992</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>5.309148666666666</v>
+      </c>
+      <c r="N16">
+        <v>15.927446</v>
+      </c>
+      <c r="O16">
+        <v>0.1289062854399907</v>
+      </c>
+      <c r="P16">
+        <v>0.1289062854399907</v>
+      </c>
+      <c r="Q16">
+        <v>0.146118389604</v>
+      </c>
+      <c r="R16">
+        <v>1.315065506436</v>
+      </c>
+      <c r="S16">
+        <v>0.0004925538219498774</v>
+      </c>
+      <c r="T16">
+        <v>0.0004925538219498774</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.027522</v>
+      </c>
+      <c r="H17">
+        <v>0.082566</v>
+      </c>
+      <c r="I17">
+        <v>0.003821022537951992</v>
+      </c>
+      <c r="J17">
+        <v>0.003821022537951992</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>7.585411999999999</v>
+      </c>
+      <c r="N17">
+        <v>22.756236</v>
+      </c>
+      <c r="O17">
+        <v>0.1841740259772843</v>
+      </c>
+      <c r="P17">
+        <v>0.1841740259772843</v>
+      </c>
+      <c r="Q17">
+        <v>0.208765709064</v>
+      </c>
+      <c r="R17">
+        <v>1.878891381576</v>
+      </c>
+      <c r="S17">
+        <v>0.000703733104164559</v>
+      </c>
+      <c r="T17">
+        <v>0.000703733104164559</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.027522</v>
+      </c>
+      <c r="H18">
+        <v>0.082566</v>
+      </c>
+      <c r="I18">
+        <v>0.003821022537951992</v>
+      </c>
+      <c r="J18">
+        <v>0.003821022537951992</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.036727666666667</v>
+      </c>
+      <c r="N18">
+        <v>6.110183</v>
+      </c>
+      <c r="O18">
+        <v>0.04945180752071482</v>
+      </c>
+      <c r="P18">
+        <v>0.04945180752071481</v>
+      </c>
+      <c r="Q18">
+        <v>0.056054818842</v>
+      </c>
+      <c r="R18">
+        <v>0.5044933695780001</v>
+      </c>
+      <c r="S18">
+        <v>0.0001889564710791151</v>
+      </c>
+      <c r="T18">
+        <v>0.0001889564710791151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.027522</v>
+      </c>
+      <c r="H19">
+        <v>0.082566</v>
+      </c>
+      <c r="I19">
+        <v>0.003821022537951992</v>
+      </c>
+      <c r="J19">
+        <v>0.003821022537951992</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>7.756501666666668</v>
+      </c>
+      <c r="N19">
+        <v>23.269505</v>
+      </c>
+      <c r="O19">
+        <v>0.1883280881051044</v>
+      </c>
+      <c r="P19">
+        <v>0.1883280881051044</v>
+      </c>
+      <c r="Q19">
+        <v>0.21347443887</v>
+      </c>
+      <c r="R19">
+        <v>1.92126994983</v>
+      </c>
+      <c r="S19">
+        <v>0.0007196058691790123</v>
+      </c>
+      <c r="T19">
+        <v>0.0007196058691790123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.052604</v>
+      </c>
+      <c r="H20">
+        <v>0.157812</v>
+      </c>
+      <c r="I20">
+        <v>0.007303287173404062</v>
+      </c>
+      <c r="J20">
+        <v>0.007303287173404062</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>13.521022</v>
+      </c>
+      <c r="N20">
+        <v>40.563066</v>
+      </c>
+      <c r="O20">
+        <v>0.3282908109760463</v>
+      </c>
+      <c r="P20">
+        <v>0.3282908109760462</v>
+      </c>
+      <c r="Q20">
+        <v>0.7112598412880001</v>
+      </c>
+      <c r="R20">
+        <v>6.401338571592</v>
+      </c>
+      <c r="S20">
+        <v>0.002397602068947776</v>
+      </c>
+      <c r="T20">
+        <v>0.002397602068947776</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.052604</v>
+      </c>
+      <c r="H21">
+        <v>0.157812</v>
+      </c>
+      <c r="I21">
+        <v>0.007303287173404062</v>
+      </c>
+      <c r="J21">
+        <v>0.007303287173404062</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>4.977299666666667</v>
+      </c>
+      <c r="N21">
+        <v>14.931899</v>
+      </c>
+      <c r="O21">
+        <v>0.1208489819808595</v>
+      </c>
+      <c r="P21">
+        <v>0.1208489819808595</v>
+      </c>
+      <c r="Q21">
+        <v>0.2618258716653334</v>
+      </c>
+      <c r="R21">
+        <v>2.356432844988</v>
+      </c>
+      <c r="S21">
+        <v>0.0008825948200197499</v>
+      </c>
+      <c r="T21">
+        <v>0.0008825948200197498</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.052604</v>
+      </c>
+      <c r="H22">
+        <v>0.157812</v>
+      </c>
+      <c r="I22">
+        <v>0.007303287173404062</v>
+      </c>
+      <c r="J22">
+        <v>0.007303287173404062</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>5.309148666666666</v>
+      </c>
+      <c r="N22">
+        <v>15.927446</v>
+      </c>
+      <c r="O22">
+        <v>0.1289062854399907</v>
+      </c>
+      <c r="P22">
+        <v>0.1289062854399907</v>
+      </c>
+      <c r="Q22">
+        <v>0.2792824564613333</v>
+      </c>
+      <c r="R22">
+        <v>2.513542108152</v>
+      </c>
+      <c r="S22">
+        <v>0.0009414396210250472</v>
+      </c>
+      <c r="T22">
+        <v>0.0009414396210250472</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.052604</v>
+      </c>
+      <c r="H23">
+        <v>0.157812</v>
+      </c>
+      <c r="I23">
+        <v>0.007303287173404062</v>
+      </c>
+      <c r="J23">
+        <v>0.007303287173404062</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>7.585411999999999</v>
+      </c>
+      <c r="N23">
+        <v>22.756236</v>
+      </c>
+      <c r="O23">
+        <v>0.1841740259772843</v>
+      </c>
+      <c r="P23">
+        <v>0.1841740259772843</v>
+      </c>
+      <c r="Q23">
+        <v>0.399023012848</v>
+      </c>
+      <c r="R23">
+        <v>3.591207115632</v>
+      </c>
+      <c r="S23">
+        <v>0.001345075801594087</v>
+      </c>
+      <c r="T23">
+        <v>0.001345075801594087</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.052604</v>
+      </c>
+      <c r="H24">
+        <v>0.157812</v>
+      </c>
+      <c r="I24">
+        <v>0.007303287173404062</v>
+      </c>
+      <c r="J24">
+        <v>0.007303287173404062</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>2.036727666666667</v>
+      </c>
+      <c r="N24">
+        <v>6.110183</v>
+      </c>
+      <c r="O24">
+        <v>0.04945180752071482</v>
+      </c>
+      <c r="P24">
+        <v>0.04945180752071481</v>
+      </c>
+      <c r="Q24">
+        <v>0.1071400221773333</v>
+      </c>
+      <c r="R24">
+        <v>0.9642601995960001</v>
+      </c>
+      <c r="S24">
+        <v>0.0003611607515676831</v>
+      </c>
+      <c r="T24">
+        <v>0.0003611607515676831</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.052604</v>
+      </c>
+      <c r="H25">
+        <v>0.157812</v>
+      </c>
+      <c r="I25">
+        <v>0.007303287173404062</v>
+      </c>
+      <c r="J25">
+        <v>0.007303287173404062</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>7.756501666666668</v>
+      </c>
+      <c r="N25">
+        <v>23.269505</v>
+      </c>
+      <c r="O25">
+        <v>0.1883280881051044</v>
+      </c>
+      <c r="P25">
+        <v>0.1883280881051044</v>
+      </c>
+      <c r="Q25">
+        <v>0.4080230136733334</v>
+      </c>
+      <c r="R25">
+        <v>3.672207123060001</v>
+      </c>
+      <c r="S25">
+        <v>0.001375414110249719</v>
+      </c>
+      <c r="T25">
+        <v>0.001375414110249719</v>
       </c>
     </row>
   </sheetData>
